--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-732099.4986159961</v>
+        <v>-734634.4694918504</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13600012.60016764</v>
+        <v>13600012.60016763</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>85.17289288835175</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>56.48865491052438</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247824</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -823,13 +823,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>6.377205675419281</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.913332137208476</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8688748975088</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>346.8179870797654</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>311.2874072595553</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380503</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>98.80399951402445</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>224.7411810187696</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>68.11015198958091</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.3061823306003</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>23.86350918945268</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>10.58364443467411</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>175.4157349343481</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135094</v>
       </c>
       <c r="V19" t="n">
-        <v>65.81340893423616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881301</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>11.76284745948101</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>168.97752971242</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>28.75188085812055</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>38.765435524893</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>112.3085276221492</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936198</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,7 +3424,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
         <v>124.3308255261727</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652609</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2698.747681409957</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2345.979026139843</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.979026139843</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.979026139843</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986295</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>538.8965081646993</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>369.9603252367924</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>219.8436858244567</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>219.8436858244567</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>72.95373832654633</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1923.341687343838</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1923.341687343838</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1923.341687343838</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1923.341687343838</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1767.918581386758</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>941.3375521384692</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>720.544972994939</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1495.089731832625</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C5" t="n">
-        <v>1126.127214892214</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D5" t="n">
-        <v>767.8615162854633</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E5" t="n">
-        <v>382.0732636872191</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139987</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>2235.550262878907</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.410930903096</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,46 +4650,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>463.6594280995018</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>294.723245171595</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>144.6066057592592</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4756,19 +4756,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W7" t="n">
         <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>1094.090022971289</v>
+        <v>866.1004720732717</v>
       </c>
       <c r="Y7" t="n">
-        <v>994.2880032601528</v>
+        <v>645.3078929297416</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2232.598233480554</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1863.635716540142</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1505.370017933392</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1119.581765335148</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>708.5958605455401</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>293.5234103905365</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520488</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520488</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2619.198073544676</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>798.5065461617548</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>629.570363233848</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1548.361223971663</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1293.676735765776</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1004.259565728815</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>980.1550109919946</v>
       </c>
       <c r="Y10" t="n">
-        <v>1155.203338947628</v>
+        <v>980.1550109919946</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5054,22 +5054,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>119.2902967703784</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
         <v>407.9027098310023</v>
@@ -5188,61 +5188,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5267,58 +5267,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.7012443408905</v>
+        <v>961.4446166151475</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>792.5084336872407</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>642.3917942749049</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1034.14228831466</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="Y16" t="n">
-        <v>813.3497091711303</v>
+        <v>1143.093081445387</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5504,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5522,40 +5522,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811332</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603197</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.953366759641</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1399.536196722681</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1171.546645824663</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.7540666811332</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5738,49 +5738,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192507</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797191</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>962.6357307816191</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>793.6995478537123</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>643.5829084413765</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797747</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2209.233006385774</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1989.631541408715</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1700.556314752913</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611859</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.284195611859</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="23">
@@ -5969,67 +5969,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400717</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190824</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>915.1035305473703</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>746.1673476194634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,43 +6449,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192269</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111683</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075776</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332384</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6528,40 +6528,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6607,22 +6607,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797747</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,28 +7072,28 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,16 +7309,16 @@
         <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7397,37 +7397,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,37 +7801,37 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>296.7574771839101</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>271.2636035596105</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,13 +22711,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>74.62978205075179</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -22753,19 +22753,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>98.2687684263192</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-2.216875867721144e-14</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182105</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>135.8503182118951</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>50.29392045468904</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>250.2980548978932</v>
       </c>
       <c r="V19" t="n">
-        <v>186.3242343895918</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>134.6711151870882</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>12.04875628922457</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,16 +24367,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>117.6820817884486</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>179.8192178272018</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>36.30694539606314</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>62.35543909864907</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1014619.237205027</v>
+        <v>1014619.237205028</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254692</v>
+        <v>207271.1201254694</v>
       </c>
       <c r="C2" t="n">
         <v>246312.530959285</v>
@@ -26323,19 +26323,19 @@
         <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="G2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070017</v>
       </c>
       <c r="H2" t="n">
         <v>242143.9799070019</v>
       </c>
       <c r="I2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="J2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="K2" t="n">
         <v>242143.9799070018</v>
@@ -26344,13 +26344,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
         <v>246312.530959285</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104482.7459291437</v>
+        <v>104482.7459291436</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18515.33659095082</v>
+        <v>18515.33659095105</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184268</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184272</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184283</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.66737493618</v>
+        <v>21597.66737493621</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.6673749362</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="O4" t="n">
         <v>21597.66737493621</v>
       </c>
       <c r="P4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1247922.902754467</v>
+        <v>-1248248.247844749</v>
       </c>
       <c r="C6" t="n">
-        <v>45584.74751469766</v>
+        <v>45584.74751469772</v>
       </c>
       <c r="D6" t="n">
-        <v>45584.74751469765</v>
+        <v>45584.74751469836</v>
       </c>
       <c r="E6" t="n">
-        <v>-197997.8198361035</v>
+        <v>-198032.5577615393</v>
       </c>
       <c r="F6" t="n">
-        <v>127414.641971252</v>
+        <v>127379.9040458163</v>
       </c>
       <c r="G6" t="n">
-        <v>127414.641971252</v>
+        <v>127379.9040458162</v>
       </c>
       <c r="H6" t="n">
-        <v>127414.641971252</v>
+        <v>127379.9040458161</v>
       </c>
       <c r="I6" t="n">
-        <v>127414.6419712521</v>
+        <v>127379.9040458162</v>
       </c>
       <c r="J6" t="n">
-        <v>-90116.56042602553</v>
+        <v>-90151.29835146108</v>
       </c>
       <c r="K6" t="n">
-        <v>127414.641971252</v>
+        <v>127379.9040458163</v>
       </c>
       <c r="L6" t="n">
-        <v>127414.6419712519</v>
+        <v>127379.9040458163</v>
       </c>
       <c r="M6" t="n">
-        <v>17068.00180128956</v>
+        <v>17068.0018012896</v>
       </c>
       <c r="N6" t="n">
         <v>121550.7477304334</v>
       </c>
       <c r="O6" t="n">
-        <v>121550.7477304334</v>
+        <v>121550.7477304331</v>
       </c>
       <c r="P6" t="n">
         <v>121550.7477304334</v>
@@ -26716,10 +26716,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
         <v>24.2846474920397</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>85.01882053285716</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>85.01882053283886</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.91585458371515</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>53.98548451145223</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>69.12041821276414</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>119.7806538380703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>69.86658336855089</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>135.8078181500393</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.52579785133705</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,7 +28065,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>201.8461461995845</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.790567694115452e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>163.572382128305</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366847</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,19 +32549,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>197.6412480909875</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>357.9244589488883</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>165.2255134509763</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067199</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305193</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33433,10 +33433,10 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,10 +33737,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043726</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394598</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533515</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191269</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>57.65947400496596</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>226.582746865555</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236314005</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>188.9220579561603</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,13 +36926,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37163,13 +37163,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,13 +37400,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
@@ -37637,13 +37637,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
